--- a/Курсовой проект СПК/Данные_по_сайту.xlsx
+++ b/Курсовой проект СПК/Данные_по_сайту.xlsx
@@ -249,11 +249,13 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -353,7 +355,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -362,7 +364,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -419,8 +421,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Как часто вы посещаете наш сайт?</a:t>
             </a:r>
@@ -439,13 +445,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -454,21 +460,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -562,17 +568,22 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:separator> </c:separator>
             </c:dLbl>
             <c:dLbl>
@@ -583,17 +594,22 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:separator> </c:separator>
             </c:dLbl>
             <c:dLbl>
@@ -604,17 +620,22 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:separator> </c:separator>
             </c:dLbl>
             <c:dLbl>
@@ -625,17 +646,22 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:separator> </c:separator>
             </c:dLbl>
             <c:dLbl>
@@ -646,17 +672,22 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:separator> </c:separator>
             </c:dLbl>
             <c:txPr>
@@ -665,17 +696,22 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -772,14 +808,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -811,8 +852,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Какие улучшения вы бы предложили для сайта?</a:t>
             </a:r>
@@ -831,13 +876,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -846,21 +891,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -943,12 +988,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -964,12 +1014,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -985,12 +1040,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1006,12 +1066,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1025,12 +1090,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1114,14 +1184,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1153,8 +1228,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Оцените, насколько наш сайт помог вам в ваших задачах (от 1 до 5, где 1 - совсем не помог, 5 - очень помог).</a:t>
             </a:r>
@@ -1173,13 +1252,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -1188,21 +1267,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -1296,12 +1375,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1317,12 +1401,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1338,12 +1427,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1359,12 +1453,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1380,12 +1479,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1399,12 +1503,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1548,12 +1657,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1569,12 +1683,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1590,12 +1709,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1611,12 +1735,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1632,12 +1761,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1651,12 +1785,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1730,14 +1869,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1769,8 +1913,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Порекомендовали бы вы наш сайт другим людям?</a:t>
             </a:r>
@@ -1789,13 +1937,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -1804,21 +1952,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -1890,12 +2038,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1911,12 +2064,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1932,12 +2090,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1951,12 +2114,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2031,14 +2199,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2070,8 +2243,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Какова основная цель вашего посещения сайта?</a:t>
             </a:r>
@@ -2090,13 +2267,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -2105,21 +2282,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -2191,12 +2368,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2212,12 +2394,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2233,12 +2420,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2252,12 +2444,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2332,14 +2529,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2371,8 +2573,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Нашли ли вы полезную информацию в статьях на нашем сайте?</a:t>
             </a:r>
@@ -2391,13 +2597,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -2406,21 +2612,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -2492,12 +2698,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2513,12 +2724,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2534,12 +2750,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2553,12 +2774,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2633,14 +2859,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2672,8 +2903,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Какие темы статей вам наиболее интересны?</a:t>
             </a:r>
@@ -2692,13 +2927,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -2707,21 +2942,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -2804,12 +3039,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2825,12 +3065,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2846,12 +3091,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2867,12 +3117,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2886,12 +3141,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2975,14 +3235,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3014,8 +3279,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Хотели бы вы видеть больше статей на сайте?</a:t>
             </a:r>
@@ -3034,13 +3303,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -3049,21 +3318,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -3135,12 +3404,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3156,12 +3430,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3177,12 +3456,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3196,12 +3480,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3276,14 +3565,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3315,8 +3609,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Используете ли вы наш сайт для проверки времени намаза?</a:t>
             </a:r>
@@ -3335,13 +3633,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -3350,21 +3648,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -3436,12 +3734,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3457,12 +3760,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3478,12 +3786,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3497,12 +3810,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3577,14 +3895,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3616,8 +3939,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Насколько точным и удобным для вас является отображение времени намаза?</a:t>
             </a:r>
@@ -3636,13 +3963,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -3651,21 +3978,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -3748,12 +4075,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3769,12 +4101,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3790,12 +4127,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3811,12 +4153,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3830,12 +4177,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3919,14 +4271,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3958,8 +4315,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Хотели бы вы видеть дополнительные функции, связанные с временем намаза (например, уведомления)?</a:t>
             </a:r>
@@ -3978,13 +4339,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -3993,21 +4354,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -4079,12 +4440,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4100,12 +4466,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4121,12 +4492,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4140,12 +4516,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4220,14 +4601,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4259,8 +4645,12 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:rPr>
               <a:t>Насколько удобен для вас интерфейс и навигация сайта?</a:t>
             </a:r>
@@ -4279,13 +4669,13 @@
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -4294,21 +4684,21 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -4380,12 +4770,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4401,12 +4796,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4422,12 +4822,17 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
+                      <a:ea typeface="DejaVu Sans"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4441,12 +4846,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4521,14 +4931,19 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4546,15 +4961,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3766320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>347400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>240120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4562,8 +4977,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5032080" y="371160"/>
-        <a:ext cx="3753360" cy="2136600"/>
+        <a:off x="5281560" y="209880"/>
+        <a:ext cx="4658760" cy="2910600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4582,9 +4997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3620880</xdr:colOff>
+      <xdr:colOff>3620520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>319680</xdr:rowOff>
+      <xdr:rowOff>319320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4592,8 +5007,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9360000" y="2519640"/>
-        <a:ext cx="3600000" cy="2120760"/>
+        <a:off x="9357120" y="2519640"/>
+        <a:ext cx="3599640" cy="2120400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4612,9 +5027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3785400</xdr:colOff>
+      <xdr:colOff>3785040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>316800</xdr:rowOff>
+      <xdr:rowOff>316440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4622,8 +5037,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5040000" y="3960000"/>
-        <a:ext cx="3764520" cy="2117520"/>
+        <a:off x="5037480" y="3960000"/>
+        <a:ext cx="3764160" cy="2117160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4642,9 +5057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800880</xdr:colOff>
+      <xdr:colOff>3800520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>325080</xdr:rowOff>
+      <xdr:rowOff>324720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4652,8 +5067,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9360360" y="5400360"/>
-        <a:ext cx="3779640" cy="2125800"/>
+        <a:off x="9357480" y="5400360"/>
+        <a:ext cx="3779280" cy="2125440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4672,9 +5087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3800880</xdr:colOff>
+      <xdr:colOff>3800520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>325080</xdr:rowOff>
+      <xdr:rowOff>324720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4682,8 +5097,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5040000" y="7200000"/>
-        <a:ext cx="3780000" cy="2126160"/>
+        <a:off x="5037480" y="7200000"/>
+        <a:ext cx="3779640" cy="2125800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4702,9 +5117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800880</xdr:colOff>
+      <xdr:colOff>3800520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>324360</xdr:rowOff>
+      <xdr:rowOff>324000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4712,8 +5127,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9360360" y="8640000"/>
-        <a:ext cx="3779640" cy="2125800"/>
+        <a:off x="9357480" y="8640000"/>
+        <a:ext cx="3779280" cy="2125440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4732,9 +5147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3794400</xdr:colOff>
+      <xdr:colOff>3794040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>321120</xdr:rowOff>
+      <xdr:rowOff>320760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4742,8 +5157,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5040000" y="10080000"/>
-        <a:ext cx="3773520" cy="2122560"/>
+        <a:off x="5037480" y="10080000"/>
+        <a:ext cx="3773160" cy="2122200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4762,9 +5177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800880</xdr:colOff>
+      <xdr:colOff>3800520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>324000</xdr:rowOff>
+      <xdr:rowOff>323640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4772,8 +5187,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9360360" y="11880000"/>
-        <a:ext cx="3779640" cy="2125800"/>
+        <a:off x="9357480" y="11880000"/>
+        <a:ext cx="3779280" cy="2125440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4792,9 +5207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3785400</xdr:colOff>
+      <xdr:colOff>3785040</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>315720</xdr:rowOff>
+      <xdr:rowOff>315360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4802,8 +5217,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5040000" y="13320000"/>
-        <a:ext cx="3764520" cy="2117520"/>
+        <a:off x="5037480" y="13320000"/>
+        <a:ext cx="3764160" cy="2117160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4822,9 +5237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800880</xdr:colOff>
+      <xdr:colOff>3800520</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>335520</xdr:rowOff>
+      <xdr:rowOff>335160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4832,8 +5247,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9375480" y="14780160"/>
-        <a:ext cx="3764520" cy="2117520"/>
+        <a:off x="9372600" y="14780160"/>
+        <a:ext cx="3764160" cy="2117160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4852,9 +5267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3785400</xdr:colOff>
+      <xdr:colOff>3785040</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>315360</xdr:rowOff>
+      <xdr:rowOff>315000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4862,8 +5277,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5040000" y="16560000"/>
-        <a:ext cx="3764520" cy="2117520"/>
+        <a:off x="5037480" y="16560000"/>
+        <a:ext cx="3764160" cy="2117160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4882,9 +5297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800880</xdr:colOff>
+      <xdr:colOff>3800520</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>323640</xdr:rowOff>
+      <xdr:rowOff>323280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4892,8 +5307,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9360360" y="18720360"/>
-        <a:ext cx="3779640" cy="2125800"/>
+        <a:off x="9357480" y="18720360"/>
+        <a:ext cx="3779280" cy="2125440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5019,11 +5434,11 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.58"/>

--- a/Курсовой проект СПК/Данные_по_сайту.xlsx
+++ b/Курсовой проект СПК/Данные_по_сайту.xlsx
@@ -4967,9 +4967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>604080</xdr:colOff>
+      <xdr:colOff>603720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>240120</xdr:rowOff>
+      <xdr:rowOff>239760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4978,7 +4978,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5281560" y="209880"/>
-        <a:ext cx="4658760" cy="2910600"/>
+        <a:ext cx="4658400" cy="2910240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4997,9 +4997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3620520</xdr:colOff>
+      <xdr:colOff>3620160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>319320</xdr:rowOff>
+      <xdr:rowOff>318960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5008,7 +5008,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357120" y="2519640"/>
-        <a:ext cx="3599640" cy="2120400"/>
+        <a:ext cx="3599280" cy="2120040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5027,9 +5027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3785040</xdr:colOff>
+      <xdr:colOff>3784680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>316440</xdr:rowOff>
+      <xdr:rowOff>316080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5038,7 +5038,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="3960000"/>
-        <a:ext cx="3764160" cy="2117160"/>
+        <a:ext cx="3763800" cy="2116800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5057,9 +5057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800520</xdr:colOff>
+      <xdr:colOff>3800160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>324720</xdr:rowOff>
+      <xdr:rowOff>324360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5068,7 +5068,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357480" y="5400360"/>
-        <a:ext cx="3779280" cy="2125440"/>
+        <a:ext cx="3778920" cy="2125080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5087,9 +5087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3800520</xdr:colOff>
+      <xdr:colOff>3800160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>324720</xdr:rowOff>
+      <xdr:rowOff>324360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5098,7 +5098,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="7200000"/>
-        <a:ext cx="3779640" cy="2125800"/>
+        <a:ext cx="3779280" cy="2125440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5117,9 +5117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800520</xdr:colOff>
+      <xdr:colOff>3800160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>324000</xdr:rowOff>
+      <xdr:rowOff>323640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5128,7 +5128,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357480" y="8640000"/>
-        <a:ext cx="3779280" cy="2125440"/>
+        <a:ext cx="3778920" cy="2125080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5147,9 +5147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3794040</xdr:colOff>
+      <xdr:colOff>3793680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>320760</xdr:rowOff>
+      <xdr:rowOff>320400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5158,7 +5158,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="10080000"/>
-        <a:ext cx="3773160" cy="2122200"/>
+        <a:ext cx="3772800" cy="2121840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5177,9 +5177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800520</xdr:colOff>
+      <xdr:colOff>3800160</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>323640</xdr:rowOff>
+      <xdr:rowOff>323280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5188,7 +5188,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357480" y="11880000"/>
-        <a:ext cx="3779280" cy="2125440"/>
+        <a:ext cx="3778920" cy="2125080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5207,9 +5207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3785040</xdr:colOff>
+      <xdr:colOff>3784680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>315360</xdr:rowOff>
+      <xdr:rowOff>315000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5218,7 +5218,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="13320000"/>
-        <a:ext cx="3764160" cy="2117160"/>
+        <a:ext cx="3763800" cy="2116800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5237,9 +5237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800520</xdr:colOff>
+      <xdr:colOff>3800160</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>335160</xdr:rowOff>
+      <xdr:rowOff>334800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5248,7 +5248,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9372600" y="14780160"/>
-        <a:ext cx="3764160" cy="2117160"/>
+        <a:ext cx="3763800" cy="2116800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5267,9 +5267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3785040</xdr:colOff>
+      <xdr:colOff>3784680</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>315000</xdr:rowOff>
+      <xdr:rowOff>314640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5278,7 +5278,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="16560000"/>
-        <a:ext cx="3764160" cy="2117160"/>
+        <a:ext cx="3763800" cy="2116800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5297,9 +5297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800520</xdr:colOff>
+      <xdr:colOff>3800160</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>323280</xdr:rowOff>
+      <xdr:rowOff>322920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5308,7 +5308,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357480" y="18720360"/>
-        <a:ext cx="3779280" cy="2125440"/>
+        <a:ext cx="3778920" cy="2125080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5434,8 +5434,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Курсовой проект СПК/Данные_по_сайту.xlsx
+++ b/Курсовой проект СПК/Данные_по_сайту.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -169,10 +169,16 @@
     <t xml:space="preserve">Очень удобный</t>
   </si>
   <si>
+    <t xml:space="preserve">Удобный</t>
+  </si>
+  <si>
     <t xml:space="preserve">Удобный, но есть недочеты</t>
   </si>
   <si>
     <t xml:space="preserve">Неудобный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Очень неудобный</t>
   </si>
   <si>
     <t xml:space="preserve">10.</t>
@@ -309,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,6 +334,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -773,19 +783,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +927,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$42</c:f>
+              <c:f>Лист1!$D$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1111,7 +1121,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Лист1!$B$43:$C$46</c:f>
+              <c:f>Лист1!$B$45:$C$48</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="4"/>
                 <c:lvl>
@@ -1147,21 +1157,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$43:$D$46</c:f>
+              <c:f>Лист1!$D$45:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1303,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$47</c:f>
+              <c:f>Лист1!$C$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1524,7 +1534,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$48:$B$52</c:f>
+              <c:f>Лист1!$B$50:$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1547,7 +1557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$48:$C$52</c:f>
+              <c:f>Лист1!$C$50:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1575,7 +1585,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$47</c:f>
+              <c:f>Лист1!$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1806,7 +1816,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$48:$B$52</c:f>
+              <c:f>Лист1!$B$50:$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1829,7 +1839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$48:$D$52</c:f>
+              <c:f>Лист1!$D$50:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1837,16 +1847,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,7 +1988,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$53</c:f>
+              <c:f>Лист1!$D$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2135,7 +2145,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Лист1!$B$54:$C$56</c:f>
+              <c:f>Лист1!$B$56:$C$58</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -2165,18 +2175,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$54:$D$56</c:f>
+              <c:f>Лист1!$D$56:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2500,13 +2510,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,13 +2840,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,16 +3213,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,13 +3546,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,13 +3876,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4239,13 +4249,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -4572,13 +4582,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,6 +4771,28 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -4840,6 +4872,56 @@
               <c:showPercent val="0"/>
               <c:separator> </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:uFillTx/>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:uFillTx/>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -4867,18 +4949,24 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Лист1!$B$39:$C$41</c:f>
+              <c:f>Лист1!$B$39:$C$43</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Очень удобный</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Удобный</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Удобный, но есть недочеты</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>Неудобный</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Очень неудобный</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4890,6 +4978,12 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>3)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5)</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4897,18 +4991,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$39:$D$41</c:f>
+              <c:f>Лист1!$D$39:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4967,9 +5067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>603720</xdr:colOff>
+      <xdr:colOff>603360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>239760</xdr:rowOff>
+      <xdr:rowOff>239400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4978,7 +5078,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5281560" y="209880"/>
-        <a:ext cx="4658400" cy="2910240"/>
+        <a:ext cx="4658040" cy="2909880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4997,9 +5097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3620160</xdr:colOff>
+      <xdr:colOff>3619800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>318960</xdr:rowOff>
+      <xdr:rowOff>318600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5008,7 +5108,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357120" y="2519640"/>
-        <a:ext cx="3599280" cy="2120040"/>
+        <a:ext cx="3598920" cy="2119680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5027,9 +5127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3784680</xdr:colOff>
+      <xdr:colOff>3784320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>316080</xdr:rowOff>
+      <xdr:rowOff>315720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5038,7 +5138,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="3960000"/>
-        <a:ext cx="3763800" cy="2116800"/>
+        <a:ext cx="3763440" cy="2116440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5057,9 +5157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800160</xdr:colOff>
+      <xdr:colOff>3799800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>324360</xdr:rowOff>
+      <xdr:rowOff>324000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5068,7 +5168,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357480" y="5400360"/>
-        <a:ext cx="3778920" cy="2125080"/>
+        <a:ext cx="3778560" cy="2124720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5087,9 +5187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3800160</xdr:colOff>
+      <xdr:colOff>3799800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>324360</xdr:rowOff>
+      <xdr:rowOff>324000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5098,7 +5198,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="7200000"/>
-        <a:ext cx="3779280" cy="2125440"/>
+        <a:ext cx="3778920" cy="2125080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5117,9 +5217,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800160</xdr:colOff>
+      <xdr:colOff>3799800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>323640</xdr:rowOff>
+      <xdr:rowOff>323280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5128,7 +5228,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357480" y="8640000"/>
-        <a:ext cx="3778920" cy="2125080"/>
+        <a:ext cx="3778560" cy="2124720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5147,9 +5247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3793680</xdr:colOff>
+      <xdr:colOff>3793320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>320400</xdr:rowOff>
+      <xdr:rowOff>320040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5158,7 +5258,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="10080000"/>
-        <a:ext cx="3772800" cy="2121840"/>
+        <a:ext cx="3772440" cy="2121480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5177,9 +5277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800160</xdr:colOff>
+      <xdr:colOff>3799800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>323280</xdr:rowOff>
+      <xdr:rowOff>322920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5188,7 +5288,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9357480" y="11880000"/>
-        <a:ext cx="3778920" cy="2125080"/>
+        <a:ext cx="3778560" cy="2124720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5207,9 +5307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3784680</xdr:colOff>
+      <xdr:colOff>3784320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>315000</xdr:rowOff>
+      <xdr:rowOff>314640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5218,7 +5318,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5037480" y="13320000"/>
-        <a:ext cx="3763800" cy="2116800"/>
+        <a:ext cx="3763440" cy="2116440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5232,14 +5332,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>18360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800160</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>334800</xdr:rowOff>
+      <xdr:colOff>3799800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>334440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5247,8 +5347,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9372600" y="14780160"/>
-        <a:ext cx="3763800" cy="2116800"/>
+        <a:off x="9372600" y="15500160"/>
+        <a:ext cx="3763440" cy="2116440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5262,14 +5362,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>20880</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>357840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3784680</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>314640</xdr:rowOff>
+      <xdr:colOff>3784320</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>313920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5277,8 +5377,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5037480" y="16560000"/>
-        <a:ext cx="3763800" cy="2116800"/>
+        <a:off x="5037480" y="17280000"/>
+        <a:ext cx="3763440" cy="2116440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5292,13 +5392,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>21240</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>358200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3800160</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:colOff>3799800</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>322920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -5307,8 +5407,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9357480" y="18720360"/>
-        <a:ext cx="3778920" cy="2125080"/>
+        <a:off x="9357480" y="19440720"/>
+        <a:ext cx="3778560" cy="2124720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5432,10 +5532,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C43" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="28.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5478,7 +5578,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -5492,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5504,7 +5604,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5516,7 +5616,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5528,7 +5628,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5552,7 +5652,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5564,7 +5664,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5576,7 +5676,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5600,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5612,7 +5712,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5624,7 +5724,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5648,7 +5748,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5660,7 +5760,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5672,7 +5772,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5684,7 +5784,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5708,7 +5808,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5720,7 +5820,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5732,7 +5832,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5756,7 +5856,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5768,7 +5868,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5780,7 +5880,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5804,7 +5904,7 @@
         <v>40</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5816,7 +5916,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5828,7 +5928,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5864,7 +5964,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5876,7 +5976,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5888,7 +5988,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5912,7 +6012,7 @@
         <v>48</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5924,7 +6024,7 @@
         <v>49</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5936,187 +6036,211 @@
         <v>50</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="D42" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>25</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="A49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>5</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>15</v>
+      <c r="D58" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6139,13 +6263,13 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
